--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-masking-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
   <si>
     <t>anchor score</t>
   </si>
@@ -67,136 +67,142 @@
     <t>best</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>salad</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>cakes</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>wife</t>
+    <t>cheese</t>
   </si>
   <si>
     <t>daughter</t>
   </si>
   <si>
+    <t>bread</t>
+  </si>
+  <si>
     <t>sturdy</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>cakes</t>
+    <t>perfectly</t>
   </si>
   <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>cake</t>
+    <t>comfortable</t>
   </si>
   <si>
     <t>potatoes</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
     <t>ever</t>
   </si>
   <si>
+    <t>ze</t>
+  </si>
+  <si>
     <t>gift</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>years</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
+    <t>cooking</t>
+  </si>
+  <si>
     <t>keeps</t>
   </si>
   <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>kitchen</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>tea</t>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>works</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>every</t>
+    <t>recommend</t>
   </si>
   <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>recommend</t>
+    <t>clean</t>
   </si>
   <si>
     <t>make</t>
   </si>
   <si>
+    <t>bought</t>
+  </si>
+  <si>
     <t>makes</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>quality</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
     <t>one</t>
-  </si>
-  <si>
-    <t>time</t>
   </si>
   <si>
     <t>like</t>
@@ -563,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,7 +580,7 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -632,13 +638,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.3720930232558139</v>
+        <v>0.4108527131782946</v>
       </c>
       <c r="C3">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D3">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -650,19 +656,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K3">
-        <v>0.9247311827956989</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="L3">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M3">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -674,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -682,13 +688,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3535353535353535</v>
+        <v>0.3737373737373738</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -700,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K4">
-        <v>0.8828125</v>
+        <v>0.8984375</v>
       </c>
       <c r="L4">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M4">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -724,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -732,13 +738,13 @@
         <v>13</v>
       </c>
       <c r="K5">
-        <v>0.8606811145510835</v>
+        <v>0.8653250773993808</v>
       </c>
       <c r="L5">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="M5">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -750,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -784,13 +790,13 @@
         <v>15</v>
       </c>
       <c r="K7">
-        <v>0.7391304347826086</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L7">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M7">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -802,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -810,13 +816,13 @@
         <v>16</v>
       </c>
       <c r="K8">
-        <v>0.7056277056277056</v>
+        <v>0.7359307359307359</v>
       </c>
       <c r="L8">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="M8">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -828,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -836,13 +842,13 @@
         <v>17</v>
       </c>
       <c r="K9">
-        <v>0.7045454545454546</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="L9">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="M9">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -854,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -862,13 +868,13 @@
         <v>18</v>
       </c>
       <c r="K10">
-        <v>0.6986301369863014</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L10">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="M10">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -880,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -888,13 +894,13 @@
         <v>19</v>
       </c>
       <c r="K11">
-        <v>0.6753246753246753</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L11">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M11">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -906,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -914,13 +920,13 @@
         <v>20</v>
       </c>
       <c r="K12">
-        <v>0.6677966101694915</v>
+        <v>0.6753246753246753</v>
       </c>
       <c r="L12">
-        <v>197</v>
+        <v>52</v>
       </c>
       <c r="M12">
-        <v>197</v>
+        <v>52</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -932,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>98</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -966,13 +972,13 @@
         <v>22</v>
       </c>
       <c r="K14">
-        <v>0.6444444444444445</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L14">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="M14">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -984,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -992,13 +998,13 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>0.630016051364366</v>
+        <v>0.6308186195826645</v>
       </c>
       <c r="L15">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="M15">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1010,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1018,13 +1024,13 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.5882352941176471</v>
+        <v>0.609375</v>
       </c>
       <c r="L16">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M16">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1036,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1044,13 +1050,13 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.5600000000000001</v>
+        <v>0.5735294117647058</v>
       </c>
       <c r="L17">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="M17">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1062,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>77</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1070,13 +1076,13 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.5555555555555556</v>
+        <v>0.5673076923076923</v>
       </c>
       <c r="L18">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="M18">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1088,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1096,13 +1102,13 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.5428571428571428</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="L19">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1114,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1122,13 +1128,13 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.5389221556886228</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L20">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="M20">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1140,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>77</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1148,13 +1154,13 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.5180722891566265</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L21">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1166,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1174,13 +1180,13 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.515625</v>
+        <v>0.5371428571428571</v>
       </c>
       <c r="L22">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="M22">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1192,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>31</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1200,13 +1206,13 @@
         <v>31</v>
       </c>
       <c r="K23">
-        <v>0.5128205128205128</v>
+        <v>0.5301204819277109</v>
       </c>
       <c r="L23">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="M23">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1218,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1226,13 +1232,13 @@
         <v>32</v>
       </c>
       <c r="K24">
-        <v>0.5096153846153846</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L24">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="M24">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1244,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1252,13 +1258,13 @@
         <v>33</v>
       </c>
       <c r="K25">
-        <v>0.5079365079365079</v>
+        <v>0.52</v>
       </c>
       <c r="L25">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="M25">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1270,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1278,13 +1284,13 @@
         <v>34</v>
       </c>
       <c r="K26">
-        <v>0.5</v>
+        <v>0.5149700598802395</v>
       </c>
       <c r="L26">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="M26">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1296,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1304,13 +1310,13 @@
         <v>35</v>
       </c>
       <c r="K27">
-        <v>0.4769230769230769</v>
+        <v>0.5131578947368421</v>
       </c>
       <c r="L27">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M27">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1322,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1330,13 +1336,13 @@
         <v>36</v>
       </c>
       <c r="K28">
-        <v>0.4754098360655737</v>
+        <v>0.5042735042735043</v>
       </c>
       <c r="L28">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="M28">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1348,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1356,13 +1362,13 @@
         <v>37</v>
       </c>
       <c r="K29">
-        <v>0.45</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L29">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1374,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1382,13 +1388,13 @@
         <v>38</v>
       </c>
       <c r="K30">
-        <v>0.4210526315789473</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="L30">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1400,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>77</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1408,13 +1414,13 @@
         <v>39</v>
       </c>
       <c r="K31">
-        <v>0.4036144578313253</v>
+        <v>0.4586466165413534</v>
       </c>
       <c r="L31">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M31">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1426,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>99</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1434,13 +1440,13 @@
         <v>40</v>
       </c>
       <c r="K32">
-        <v>0.3657587548638132</v>
+        <v>0.4197530864197531</v>
       </c>
       <c r="L32">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="M32">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1452,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>163</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1460,13 +1466,13 @@
         <v>41</v>
       </c>
       <c r="K33">
-        <v>0.3553921568627451</v>
+        <v>0.4156626506024096</v>
       </c>
       <c r="L33">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="M33">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1478,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>263</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1486,13 +1492,13 @@
         <v>42</v>
       </c>
       <c r="K34">
-        <v>0.3301369863013698</v>
+        <v>0.375</v>
       </c>
       <c r="L34">
-        <v>241</v>
+        <v>153</v>
       </c>
       <c r="M34">
-        <v>241</v>
+        <v>153</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1504,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>489</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1512,13 +1518,13 @@
         <v>43</v>
       </c>
       <c r="K35">
-        <v>0.3082706766917293</v>
+        <v>0.3463035019455253</v>
       </c>
       <c r="L35">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="M35">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1530,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>92</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1538,13 +1544,13 @@
         <v>44</v>
       </c>
       <c r="K36">
-        <v>0.2847682119205298</v>
+        <v>0.3205479452054795</v>
       </c>
       <c r="L36">
-        <v>43</v>
+        <v>234</v>
       </c>
       <c r="M36">
-        <v>43</v>
+        <v>234</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1556,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>108</v>
+        <v>496</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1564,13 +1570,13 @@
         <v>45</v>
       </c>
       <c r="K37">
-        <v>0.2631578947368421</v>
+        <v>0.3007518796992481</v>
       </c>
       <c r="L37">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M37">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1582,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>154</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1590,13 +1596,13 @@
         <v>46</v>
       </c>
       <c r="K38">
-        <v>0.2411194833153929</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="L38">
-        <v>224</v>
+        <v>33</v>
       </c>
       <c r="M38">
-        <v>224</v>
+        <v>33</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1608,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>705</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1616,13 +1622,13 @@
         <v>47</v>
       </c>
       <c r="K39">
-        <v>0.2086330935251799</v>
+        <v>0.2847682119205298</v>
       </c>
       <c r="L39">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="M39">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1634,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1642,13 +1648,13 @@
         <v>48</v>
       </c>
       <c r="K40">
-        <v>0.2039735099337748</v>
+        <v>0.237410071942446</v>
       </c>
       <c r="L40">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="M40">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1660,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>601</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1668,13 +1674,13 @@
         <v>49</v>
       </c>
       <c r="K41">
-        <v>0.1918158567774936</v>
+        <v>0.232508073196986</v>
       </c>
       <c r="L41">
-        <v>150</v>
+        <v>216</v>
       </c>
       <c r="M41">
-        <v>150</v>
+        <v>216</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1686,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>632</v>
+        <v>713</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1694,13 +1700,13 @@
         <v>50</v>
       </c>
       <c r="K42">
-        <v>0.1786833855799373</v>
+        <v>0.2248803827751196</v>
       </c>
       <c r="L42">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="M42">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1712,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>262</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1720,13 +1726,13 @@
         <v>51</v>
       </c>
       <c r="K43">
-        <v>0.1768292682926829</v>
+        <v>0.1943573667711599</v>
       </c>
       <c r="L43">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="M43">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1738,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>135</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1746,13 +1752,13 @@
         <v>52</v>
       </c>
       <c r="K44">
-        <v>0.1454545454545454</v>
+        <v>0.1930946291560102</v>
       </c>
       <c r="L44">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c r="M44">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1764,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>376</v>
+        <v>631</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1772,25 +1778,25 @@
         <v>53</v>
       </c>
       <c r="K45">
-        <v>0.1405405405405405</v>
+        <v>0.1867549668874172</v>
       </c>
       <c r="L45">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="M45">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="N45">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>318</v>
+        <v>614</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1798,25 +1804,25 @@
         <v>54</v>
       </c>
       <c r="K46">
-        <v>0.1296296296296296</v>
+        <v>0.1756756756756757</v>
       </c>
       <c r="L46">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="M46">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>235</v>
+        <v>305</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1824,13 +1830,13 @@
         <v>55</v>
       </c>
       <c r="K47">
-        <v>0.1180811808118081</v>
+        <v>0.1318181818181818</v>
       </c>
       <c r="L47">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="M47">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1842,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>239</v>
+        <v>382</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1850,13 +1856,13 @@
         <v>56</v>
       </c>
       <c r="K48">
-        <v>0.116945107398568</v>
+        <v>0.125</v>
       </c>
       <c r="L48">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M48">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1868,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>370</v>
+        <v>399</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1876,13 +1882,13 @@
         <v>57</v>
       </c>
       <c r="K49">
-        <v>0.1162280701754386</v>
+        <v>0.1185185185185185</v>
       </c>
       <c r="L49">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="M49">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1894,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>403</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1902,13 +1908,13 @@
         <v>58</v>
       </c>
       <c r="K50">
-        <v>0.1046228710462287</v>
+        <v>0.1167883211678832</v>
       </c>
       <c r="L50">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M50">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1920,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1928,13 +1934,13 @@
         <v>59</v>
       </c>
       <c r="K51">
-        <v>0.07276119402985075</v>
+        <v>0.1107011070110701</v>
       </c>
       <c r="L51">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="M51">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -1946,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>994</v>
+        <v>241</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1954,25 +1960,25 @@
         <v>60</v>
       </c>
       <c r="K52">
-        <v>0.05730129390018484</v>
+        <v>0.1065292096219931</v>
       </c>
       <c r="L52">
         <v>31</v>
       </c>
       <c r="M52">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N52">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>510</v>
+        <v>260</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -1980,25 +1986,25 @@
         <v>61</v>
       </c>
       <c r="K53">
-        <v>0.054519368723099</v>
+        <v>0.09069212410501193</v>
       </c>
       <c r="L53">
         <v>38</v>
       </c>
       <c r="M53">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N53">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>659</v>
+        <v>381</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2006,25 +2012,77 @@
         <v>62</v>
       </c>
       <c r="K54">
-        <v>0.03636363636363636</v>
+        <v>0.06716417910447761</v>
       </c>
       <c r="L54">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="M54">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="N54">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>1113</v>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K55">
+        <v>0.05308464849354376</v>
+      </c>
+      <c r="L55">
+        <v>37</v>
+      </c>
+      <c r="M55">
+        <v>38</v>
+      </c>
+      <c r="N55">
+        <v>0.97</v>
+      </c>
+      <c r="O55">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K56">
+        <v>0.04498269896193772</v>
+      </c>
+      <c r="L56">
+        <v>52</v>
+      </c>
+      <c r="M56">
+        <v>53</v>
+      </c>
+      <c r="N56">
+        <v>0.98</v>
+      </c>
+      <c r="O56">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>1104</v>
       </c>
     </row>
   </sheetData>
